--- a/biology/Microbiologie/Atribacterota/Atribacterota.xlsx
+++ b/biology/Microbiologie/Atribacterota/Atribacterota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Atribacterota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Atribacter qui est le genre type de ce phylum[1].
-En 2022 selon la LPSN  (11 novembre 2022)[2] ce phylum ne comporte qu'une seule classe, les Atribacteria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Atribacterota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Atribacter qui est le genre type de ce phylum.
+En 2022 selon la LPSN  (11 novembre 2022) ce phylum ne comporte qu'une seule classe, les Atribacteria.
 </t>
         </is>
       </c>
@@ -512,16 +524,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé en 2020 par T. Katayama et al.[1] et il est validé l'année suivante par une publication dans l'IJSEM[3].
-Le nom correct complet (avec auteur) de ce taxon est Atribacterota Katayama et al. 2021[4].
-Le genre type est : Atribacter Katayama et al. 2021[4].
-Synonymie
-Atribacterota a pour synonyme[4] :
-Atribacterota Katayama et al. 2020
-Étymologie
-L'étymologie de cette classe est la suivante: A.tri.bac.te.ro’ta. N.L. masc. n. Atribacter, genre type du phylum; L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Atribacterota, le phylum des Atribacter[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé en 2020 par T. Katayama et al. et il est validé l'année suivante par une publication dans l'IJSEM.
+Le nom correct complet (avec auteur) de ce taxon est Atribacterota Katayama et al. 2021.
+Le genre type est : Atribacter Katayama et al. 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Atribacterota</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atribacterota</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Atribacterota a pour synonyme :
+Atribacterota Katayama et al. 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Atribacterota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atribacterota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette classe est la suivante: A.tri.bac.te.ro’ta. N.L. masc. n. Atribacter, genre type du phylum; L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Atribacterota, le phylum des Atribacter.
 </t>
         </is>
       </c>
